--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-13565_Access_to_table_properties/propertyAccessTest.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-13565_Access_to_table_properties/propertyAccessTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekosolapova/work/demoEPBDS-13565/openl-demo/user-workspace/DEFAULT/propertyAccessTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vpikus/Sources/OpenL/openl-tablets/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-13565_Access_to_table_properties/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDC7949-8903-834F-95A9-DFA1DF4B81D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BECA0F1-DCD5-5940-9373-6A5F3828FE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="2800" windowWidth="36720" windowHeight="24160" xr2:uid="{BF58DC80-DAD5-374A-80EF-E3D27AEAD543}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{BF58DC80-DAD5-374A-80EF-E3D27AEAD543}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>origin</t>
   </si>
   <si>
-    <t>Deviation</t>
-  </si>
-  <si>
     <t>usregion</t>
   </si>
   <si>
@@ -1311,6 +1308,9 @@
   </si>
   <si>
     <t>ColoradoResult1</t>
+  </si>
+  <si>
+    <t>Custom</t>
   </si>
 </sst>
 </file>
@@ -1558,27 +1558,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1596,14 +1587,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1627,9 +1627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1667,7 +1667,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1773,7 +1773,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1915,7 +1915,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1925,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E8A82-5F0D-1547-8935-5E2CB45FE294}">
   <dimension ref="B4:I222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1942,75 +1942,75 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="G4" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="B4" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="G4" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="36" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="G6" s="40"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="40"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="G7" s="40"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="40"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
@@ -2018,50 +2018,50 @@
         <v>13</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="G8" s="40"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="40"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="G9" s="40"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="40"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="G10" s="40"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="40"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="G11" s="40"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2078,7 +2078,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
@@ -2086,50 +2086,50 @@
         <v>23</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="G12" s="40"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="40"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="G13" s="40"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="40"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="G14" s="40"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="40"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2137,16 +2137,16 @@
         <v>25</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="G15" s="40"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="40"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>45002</v>
       </c>
       <c r="E16" s="16"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="3" t="s">
         <v>26</v>
       </c>
@@ -2163,7 +2163,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="40"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>45172</v>
       </c>
       <c r="E17" s="16"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="3" t="s">
         <v>30</v>
       </c>
@@ -2180,7 +2180,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="40"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>44993</v>
       </c>
       <c r="E18" s="16"/>
-      <c r="G18" s="40"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2197,92 +2197,92 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="40"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="G19" s="40"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="40"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="G21" s="40"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="40"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E22" s="15"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>40</v>
+        <v>424</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>40</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="G24" s="40"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="3" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +2299,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="40"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="G25" s="40"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="3" t="s">
         <v>18</v>
       </c>
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="40"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="3" t="s">
         <v>34</v>
       </c>
@@ -2324,16 +2324,16 @@
         <v>35</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="G26" s="40"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="40"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>44986</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="G27" s="40"/>
+      <c r="G27" s="37"/>
       <c r="H27" s="3" t="s">
         <v>28</v>
       </c>
@@ -2350,760 +2350,760 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="40"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="G28" s="40"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="40"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="G29" s="40"/>
+      <c r="G29" s="37"/>
       <c r="H29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="37"/>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="38"/>
+      <c r="C31" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="40"/>
-      <c r="C30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="41"/>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="E31" s="15"/>
-      <c r="G31" s="41"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="40"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="30"/>
+        <v>58</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="32"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I35" s="30"/>
+        <v>59</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="30"/>
+        <v>60</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I37" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="32"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="32"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="32"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="30"/>
+        <v>64</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="32"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="I41" s="30"/>
+        <v>65</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="32"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" s="30"/>
+        <v>66</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I43" s="30"/>
+        <v>67</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="32"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="32"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" s="32"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="I46" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="32"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="30"/>
+        <v>71</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" s="32"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="I48" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" s="32"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I49" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" s="32"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="I50" s="30"/>
+        <v>74</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" s="32"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I51" s="30"/>
+        <v>75</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" s="32"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I52" s="30"/>
+        <v>76</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" s="32"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I53" s="30"/>
+        <v>77</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="I54" s="30"/>
+        <v>78</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" s="32"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="H55" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="I55" s="30"/>
+      <c r="I55" s="32"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H56" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="I56" s="30"/>
+        <v>79</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" s="32"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I57" s="30"/>
+        <v>80</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" s="32"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I58" s="30"/>
+        <v>81</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" s="32"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I59" s="30"/>
+        <v>82</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="32"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="I60" s="30"/>
+        <v>83</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I60" s="32"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H61" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="I61" s="30"/>
+        <v>112</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="I61" s="32"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D68" s="14" t="b">
         <v>0</v>
@@ -3111,10 +3111,10 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D69" s="2" t="b">
         <v>1</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D70" s="2" t="b">
         <v>1</v>
@@ -3133,10 +3133,10 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>13</v>
@@ -3144,32 +3144,32 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D74" s="2" t="b">
         <v>1</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>23</v>
@@ -3188,32 +3188,32 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>25</v>
@@ -3221,10 +3221,10 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D79" s="8">
         <v>45002</v>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D80" s="8">
         <v>45172</v>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D81" s="8">
         <v>44993</v>
@@ -3257,65 +3257,65 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>40</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="2" t="b">
         <v>1</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>19</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>35</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8">
         <v>44986</v>
@@ -3357,54 +3357,54 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="2" t="b">
         <v>1</v>
@@ -3412,10 +3412,10 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="2" t="b">
         <v>0</v>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D97" s="2" t="b">
         <v>1</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D98" s="2" t="b">
         <v>1</v>
@@ -3445,43 +3445,43 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D102" s="2" t="b">
         <v>1</v>
@@ -3489,54 +3489,54 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D107" s="8">
         <v>44621</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D108" s="8">
         <v>44629</v>
@@ -3557,10 +3557,10 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D109" s="8">
         <v>44628</v>
@@ -3569,65 +3569,65 @@
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>40</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D115" s="2" t="b">
         <v>1</v>
@@ -3635,10 +3635,10 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>19</v>
@@ -3646,21 +3646,21 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D118" s="8">
         <v>44621</v>
@@ -3669,54 +3669,54 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D123" s="2" t="b">
         <v>1</v>
@@ -3724,68 +3724,68 @@
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D124" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="C131" s="35" t="s">
+      <c r="B131" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="C131" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="35" t="s">
+      <c r="D131" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F131" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="G131" s="35" t="s">
+      <c r="F131" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="G131" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H131" s="35" t="s">
+      <c r="H131" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="43" t="s">
+      <c r="B132" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F132" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" s="48" t="s">
         <v>9</v>
       </c>
       <c r="G132" s="11" t="s">
@@ -3796,14 +3796,14 @@
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="43"/>
+      <c r="B133" s="46"/>
       <c r="C133" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D133" s="22">
         <v>45209</v>
       </c>
-      <c r="F133" s="31"/>
+      <c r="F133" s="48"/>
       <c r="G133" s="11" t="s">
         <v>21</v>
       </c>
@@ -3812,14 +3812,14 @@
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="43"/>
+      <c r="B134" s="46"/>
       <c r="C134" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D134" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F134" s="31"/>
+      <c r="F134" s="48"/>
       <c r="G134" s="11" t="s">
         <v>20</v>
       </c>
@@ -3828,46 +3828,46 @@
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="43"/>
+      <c r="B135" s="46"/>
       <c r="C135" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D135" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F135" s="31"/>
+      <c r="F135" s="48"/>
       <c r="G135" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="43"/>
+      <c r="B136" s="46"/>
       <c r="C136" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F136" s="31"/>
+      <c r="F136" s="48"/>
       <c r="G136" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="43"/>
+      <c r="B137" s="46"/>
       <c r="C137" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="31"/>
+      <c r="F137" s="48"/>
       <c r="G137" s="11" t="s">
         <v>15</v>
       </c>
@@ -3876,55 +3876,55 @@
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="43"/>
+      <c r="B138" s="46"/>
       <c r="C138" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D138" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F138" s="31"/>
+      <c r="F138" s="48"/>
       <c r="G138" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="43"/>
+      <c r="B139" s="46"/>
       <c r="C139" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="F139" s="31"/>
+        <v>397</v>
+      </c>
+      <c r="F139" s="48"/>
       <c r="G139" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="43"/>
+      <c r="B140" s="46"/>
       <c r="C140" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="31"/>
+      <c r="F140" s="48"/>
       <c r="G140" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" s="43"/>
+      <c r="B141" s="46"/>
       <c r="C141" s="11" t="s">
         <v>10</v>
       </c>
@@ -3940,29 +3940,29 @@
       <c r="H141" s="11"/>
     </row>
     <row r="142" spans="2:8" ht="230" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="47" t="s">
+      <c r="B142" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C142" s="48" t="s">
+      <c r="C142" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="48"/>
+      <c r="D142" s="45"/>
       <c r="F142" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G142" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="H142" s="33"/>
+      <c r="G142" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="H142" s="42"/>
     </row>
     <row r="143" spans="2:8" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C143" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D143" s="33"/>
+      <c r="C143" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="D143" s="42"/>
       <c r="F143" s="14" t="s">
         <v>0</v>
       </c>
@@ -3975,10 +3975,10 @@
       <c r="B144" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="C144" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="28"/>
+      <c r="D144" s="40"/>
       <c r="F144" s="14" t="s">
         <v>6</v>
       </c>
@@ -3991,67 +3991,67 @@
       <c r="B145" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D145" s="28"/>
+      <c r="D145" s="40"/>
       <c r="F145" s="14">
         <v>1</v>
       </c>
-      <c r="G145" s="44">
+      <c r="G145" s="47">
         <v>100</v>
       </c>
-      <c r="H145" s="44"/>
+      <c r="H145" s="47"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="14">
         <v>1</v>
       </c>
-      <c r="C146" s="28">
+      <c r="C146" s="40">
         <v>100</v>
       </c>
-      <c r="D146" s="28"/>
+      <c r="D146" s="40"/>
       <c r="F146" s="14">
         <v>2</v>
       </c>
-      <c r="G146" s="44">
+      <c r="G146" s="47">
         <v>200</v>
       </c>
-      <c r="H146" s="44"/>
+      <c r="H146" s="47"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="14">
         <v>2</v>
       </c>
-      <c r="C147" s="28">
+      <c r="C147" s="40">
         <v>200</v>
       </c>
-      <c r="D147" s="28"/>
+      <c r="D147" s="40"/>
       <c r="F147" s="14">
         <v>3</v>
       </c>
-      <c r="G147" s="28">
+      <c r="G147" s="40">
         <v>300</v>
       </c>
-      <c r="H147" s="28"/>
+      <c r="H147" s="40"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="14">
         <v>3</v>
       </c>
-      <c r="C148" s="28">
+      <c r="C148" s="40">
         <v>300</v>
       </c>
-      <c r="D148" s="28"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="34"/>
+      <c r="D148" s="40"/>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C153" s="27"/>
-      <c r="D153" s="27"/>
+      <c r="B153" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
       <c r="E153" s="18"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
@@ -4059,7 +4059,7 @@
         <v>5</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D154" s="14">
         <v>1</v>
@@ -4067,21 +4067,21 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D156" s="14" t="b">
         <v>1</v>
@@ -4089,10 +4089,10 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D157" s="14" t="b">
         <v>1</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B158" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D158" s="14" t="s">
         <v>19</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B159" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D159" s="14" t="s">
         <v>17</v>
@@ -4122,10 +4122,10 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D160" s="14" t="b">
         <v>1</v>
@@ -4133,21 +4133,21 @@
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>13</v>
@@ -4155,10 +4155,10 @@
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D163" s="14" t="s">
         <v>11</v>
@@ -4166,21 +4166,21 @@
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D165" s="20">
         <v>45209</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D166" s="14" t="b">
         <v>0</v>
@@ -4199,10 +4199,10 @@
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D167" s="14" t="b">
         <v>0</v>
@@ -4210,32 +4210,32 @@
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B168" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D170" s="14" t="b">
         <v>0</v>
@@ -4243,54 +4243,54 @@
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D175" s="20">
         <v>45240</v>
@@ -4298,10 +4298,10 @@
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D176" s="14" t="b">
         <v>0</v>
@@ -4309,10 +4309,10 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D177" s="14" t="b">
         <v>1</v>
@@ -4320,32 +4320,32 @@
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B178" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B179" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B180" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D180" s="14" t="b">
         <v>0</v>
@@ -4353,85 +4353,85 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B184" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B185" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D185" s="20">
         <v>45240</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B194" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="C194" s="27"/>
+      <c r="B194" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="C194" s="30"/>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C195" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="C195" s="25" t="s">
-        <v>391</v>
-      </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B198" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C198" s="27"/>
+      <c r="B198" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C198" s="30"/>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
@@ -4439,30 +4439,30 @@
         <v>1</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B206" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="C206" s="27"/>
-      <c r="D206" s="27"/>
+      <c r="B206" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C206" s="30"/>
+      <c r="D206" s="30"/>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B207" s="45" t="s">
+      <c r="B207" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C207" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D207" s="46" t="s">
-        <v>416</v>
+      <c r="D207" s="28" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
@@ -4470,7 +4470,7 @@
         <v>3</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>4</v>
@@ -4478,79 +4478,79 @@
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C209" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D209" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="D209" s="11" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C210" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="D210" s="11" t="s">
         <v>406</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B211" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C211" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="C211" s="11" t="s">
-        <v>409</v>
-      </c>
       <c r="D211" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C212" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="C212" s="14" t="s">
-        <v>412</v>
-      </c>
       <c r="D212" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D213" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B218" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="C213" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="D213" s="26" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B218" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="C218" s="27"/>
+      <c r="C218" s="30"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C219" s="11" t="s">
         <v>419</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B220" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C220" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
@@ -4566,24 +4566,29 @@
         <v>0</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="F132:F140"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="H46:I46"/>
@@ -4600,6 +4605,19 @@
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
     <mergeCell ref="G142:H142"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="B131:D131"/>
@@ -4609,24 +4627,6 @@
     <mergeCell ref="F131:H131"/>
     <mergeCell ref="C148:D148"/>
     <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="F132:F140"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C144:D144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
